--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1372,6 +1372,12 @@
   </si>
   <si>
     <t>Ahora es radio---RESUELTO---</t>
+  </si>
+  <si>
+    <t>Opcional: Ver de agregar medio de pago</t>
+  </si>
+  <si>
+    <t>***PENDIENTE***</t>
   </si>
 </sst>
 </file>
@@ -1544,38 +1550,11 @@
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1939,8 +1918,8 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,13 +2789,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>108</v>
       </c>
@@ -2824,13 +2803,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>108</v>
       </c>
@@ -2838,144 +2817,182 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="12"/>
-    </row>
-    <row r="120" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="12"/>
-    </row>
-    <row r="121" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="B120" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="12"/>
-    </row>
-    <row r="122" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B121" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="12"/>
-    </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="12"/>
-    </row>
-    <row r="125" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="B124" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="12"/>
-    </row>
-    <row r="126" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="B125" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="12"/>
-    </row>
-    <row r="127" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B126" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B127" s="12"/>
-    </row>
-    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="12"/>
-    </row>
-    <row r="129" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="B128" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="12"/>
-    </row>
-    <row r="130" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="B129" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="12"/>
-    </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B130" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="12"/>
-    </row>
-    <row r="132" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="B131" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B132" s="12"/>
-    </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="12"/>
-    </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="12"/>
-    </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B135" s="12"/>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B117:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B135">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1378,6 +1378,9 @@
   </si>
   <si>
     <t>***PENDIENTE***</t>
+  </si>
+  <si>
+    <t>Se muestra en consola del servidor y también se almacena en la collection "productscarts"</t>
   </si>
 </sst>
 </file>
@@ -1918,8 +1921,8 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,9 +2942,11 @@
       <c r="A132" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1381,13 +1381,19 @@
   </si>
   <si>
     <t>Se muestra en consola del servidor y también se almacena en la collection "productscarts"</t>
+  </si>
+  <si>
+    <t>Se definió el esquema del carrito también</t>
+  </si>
+  <si>
+    <t>https://github.com/gabymosci/aa-Proyecto-integrador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1478,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1510,11 +1524,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1548,9 +1563,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1921,8 +1938,8 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,6 +2938,9 @@
       <c r="B129" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="C129" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
@@ -2955,6 +2975,9 @@
       </c>
       <c r="B133" s="12" t="s">
         <v>130</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3007,7 +3030,10 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Solo &quot;Sí&quot; o &quot;No&quot;" error="Se debe ingresar exactamente &quot;Sí&quot; o &quot;No&quot;" sqref="B1"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C133" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1387,6 +1387,9 @@
   </si>
   <si>
     <t>https://github.com/gabymosci/aa-Proyecto-integrador</t>
+  </si>
+  <si>
+    <t>Usé una librería para la paginación obtenida de github</t>
   </si>
 </sst>
 </file>
@@ -1938,8 +1941,8 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,6 +2027,9 @@
       </c>
       <c r="B10" s="12" t="s">
         <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.25">

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1353,9 +1353,6 @@
     <t>No se agregaron elementos adicionales.</t>
   </si>
   <si>
-    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.</t>
-  </si>
-  <si>
     <t>No se agregaron campos adicionales.</t>
   </si>
   <si>
@@ -1389,14 +1386,60 @@
     <t>https://github.com/gabymosci/aa-Proyecto-integrador</t>
   </si>
   <si>
-    <t>Usé una librería para la paginación obtenida de github</t>
+    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.---RESUELTO---</t>
+  </si>
+  <si>
+    <t>Tratá de no usar funciones con tantos parámetros. Es difícil memorizarlos y fácil confundirlos, además de ser incómodo. Por ej, la función validateInput podría recibir un objeto como parámetro, con propiedades que contengan los valores que necesitás.</t>
+  </si>
+  <si>
+    <t>El CSS en línea generado, como en initJS, tal vez es mejor reemplazarlo por una clase de CSS.</t>
+  </si>
+  <si>
+    <t>Condiciones sumamente complejas, como el if de alta.js en donde preguntás por todas las validaciones, generan un código muy difícil de digerir. Sería mejor que crees una función que resuelva esto y luego preguntar if(formValidated()) {...} o algo similar.</t>
+  </si>
+  <si>
+    <t>Tratá de no utilizar let para declarar palabras si no van a cambiar de valor. Si bien mayoritariamente utilizaste const, en algunos casos no, habilitando un posible cambio de valor involuntario.</t>
+  </si>
+  <si>
+    <t>Podrías mejorar el responsive, por ejemplo, el formulario de alta no aprovecha bien el espacio y los elementos se amontonan. También sería bueno, en mobile, cerrar el menú desplegable de la navbar una vez que una página haya cargado.</t>
+  </si>
+  <si>
+    <t>Están buenos los mensajes de validación de los forms, pero al hacer scroll quedan quietos si están abiertos, algo a mejorar.</t>
+  </si>
+  <si>
+    <t>La página de nosotros está bien, pero te invito a generar generar otro tipos de elementos y jugar un poco con el diseño o disposición. Es una página para aprovechar y distinguirse.</t>
+  </si>
+  <si>
+    <t>Estoy de acuerdo. Implica replantear desde cero varias funciones. No me dio el tiempo.</t>
+  </si>
+  <si>
+    <t>Estoy de acuerdo. Implica replantear desde cero esta función. No me dio el tiempo.</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>No me dio el tiempo.</t>
+  </si>
+  <si>
+    <t>Correcciones y mejoras sugeridas en la corrección de la Etapa 2</t>
+  </si>
+  <si>
+    <t>Utilicé una librería pública descargada de GitHub en JS Vanilla para el Paginado de Cards y Table. Consideré importante esta funcionalidad ya que si la colección tiene 2000 documentos -como podría ocurrir- el sitio se torna inmanejable.
+La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table.</t>
+  </si>
+  <si>
+    <t>Pendiente: paginar a nivel base de datos, no me dio el tiempo.</t>
+  </si>
+  <si>
+    <t>Mejorado en todos los casos que pude.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1532,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF6D1D6A"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1503,7 +1553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1526,13 +1576,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1567,13 +1630,98 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1938,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,9 +2176,6 @@
       <c r="B10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2072,7 +2217,7 @@
         <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2362,7 +2507,7 @@
         <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2395,7 +2540,7 @@
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2564,7 +2709,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -2712,7 +2857,7 @@
         <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2723,7 +2868,7 @@
         <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -2798,7 +2943,7 @@
         <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -2861,7 +3006,7 @@
       </c>
       <c r="B119" s="12"/>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -2918,7 +3063,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -2945,7 +3090,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2972,7 +3117,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2983,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3000,34 +3145,152 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="15"/>
+    </row>
+    <row r="140" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="12"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="12"/>
+    </row>
+    <row r="149" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B117:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="B1 B117:B138 B140:B147 B149:B1048576">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B135">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="12" priority="10">
       <formula>LEN(TRIM(B117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(B139))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(B148))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -1425,14 +1425,14 @@
     <t>Correcciones y mejoras sugeridas en la corrección de la Etapa 2</t>
   </si>
   <si>
+    <t>Pendiente: paginar a nivel base de datos, no me dio el tiempo.</t>
+  </si>
+  <si>
+    <t>Mejorado en todos los casos que pude.</t>
+  </si>
+  <si>
     <t>Utilicé una librería pública descargada de GitHub en JS Vanilla para el Paginado de Cards y Table. Consideré importante esta funcionalidad ya que si la colección tiene 2000 documentos -como podría ocurrir- el sitio se torna inmanejable.
-La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table.</t>
-  </si>
-  <si>
-    <t>Pendiente: paginar a nivel base de datos, no me dio el tiempo.</t>
-  </si>
-  <si>
-    <t>Mejorado en todos los casos que pude.</t>
+La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table. También funciona el buscador.</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1595,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1634,44 +1634,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2089,8 +2065,8 @@
   <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3131,7 @@
       <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B140" s="12" t="s">
@@ -3192,7 +3168,7 @@
         <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,67 +3205,67 @@
       </c>
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" t="s">
         <v>159</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B117:B138 B140:B147 B149:B1048576">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B135">
-    <cfRule type="containsBlanks" dxfId="12" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(B117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="containsBlanks" dxfId="9" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B139))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B148))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="163">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1433,6 +1433,9 @@
   <si>
     <t>Utilicé una librería pública descargada de GitHub en JS Vanilla para el Paginado de Cards y Table. Consideré importante esta funcionalidad ya que si la colección tiene 2000 documentos -como podría ocurrir- el sitio se torna inmanejable.
 La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table. También funciona el buscador.</t>
+  </si>
+  <si>
+    <t>Ahora se cierra el menú desplegable. Con otras cosas tuve inconvenientes, especialmente con la table.</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1598,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1637,6 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -2065,8 +2069,8 @@
   <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2361,7 @@
       <c r="B37" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="17" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3130,7 +3134,7 @@
       </c>
       <c r="B139" s="15"/>
     </row>
-    <row r="140" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>147</v>
       </c>
@@ -3142,7 +3146,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="16" t="s">
         <v>148</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -3150,7 +3154,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B142" s="12" t="s">
@@ -3161,7 +3165,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="16" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="12" t="s">
@@ -3171,11 +3175,16 @@
         <v>160</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
@@ -3205,7 +3214,7 @@
       </c>
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>161</v>
       </c>

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="166">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1371,9 +1371,6 @@
     <t>Ahora es radio---RESUELTO---</t>
   </si>
   <si>
-    <t>Opcional: Ver de agregar medio de pago</t>
-  </si>
-  <si>
     <t>***PENDIENTE***</t>
   </si>
   <si>
@@ -1431,11 +1428,28 @@
     <t>Mejorado en todos los casos que pude.</t>
   </si>
   <si>
+    <t>Hice el intento de incorporar la funcionalidad de Pago con la SDK de Marcado Pago. Quedé a mitad de camino, funciona en el front hasta antes del POST de los datos. Toda la documentación que encontré utiliza la declaración
+const mercadopago = require("mercadopago");
+Esto no funciona en nuestra arquitectura "type": "module" que supongo debería tener un formato
+import mercadopago from 'mercadopago';</t>
+  </si>
+  <si>
+    <t>Pendiente: toda la programación del Back</t>
+  </si>
+  <si>
+    <t>https://aa-proyecto-integrador.glitch.me/</t>
+  </si>
+  <si>
+    <t>Opcional: Se agregó la collection "productscarts"</t>
+  </si>
+  <si>
     <t>Utilicé una librería pública descargada de GitHub en JS Vanilla para el Paginado de Cards y Table. Consideré importante esta funcionalidad ya que si la colección tiene 2000 documentos -como podría ocurrir- el sitio se torna inmanejable.
-La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table. También funciona el buscador.</t>
-  </si>
-  <si>
-    <t>Ahora se cierra el menú desplegable. Con otras cosas tuve inconvenientes, especialmente con la table.</t>
+La adapté para que funcione también con las Cards, ya que estaba desarrollada sólo para Table. 
+También funciona el buscador.</t>
+  </si>
+  <si>
+    <t>Ahora se cierra el menú desplegable y se hicieron varias mejoras. 
+Algunas cosas no pude resolverlas, particularmente la table entre otras.</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1612,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1641,6 +1655,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -1758,6 +1773,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6D1D6A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2066,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2709,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -2986,7 +3006,7 @@
       </c>
       <c r="B119" s="12"/>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3043,7 +3063,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3070,7 +3090,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3097,7 +3117,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3108,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3118,6 +3138,9 @@
       <c r="B134" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="C134" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -3125,29 +3148,29 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>130</v>
@@ -3155,57 +3178,57 @@
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>162</v>
+      <c r="C144" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3214,80 +3237,92 @@
       </c>
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" t="s">
         <v>161</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B117:B138 B140:B147 B149:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:B135">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="22">
       <formula>LEN(TRIM(B117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="19">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="16">
       <formula>LEN(TRIM(B139))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="13">
       <formula>LEN(TRIM(B148))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Solo &quot;Sí&quot; o &quot;No&quot;" error="Se debe ingresar exactamente &quot;Sí&quot; o &quot;No&quot;" sqref="B1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Solo &quot;Sí&quot; o &quot;No&quot;" error="Se debe ingresar exactamente &quot;Sí&quot; o &quot;No&quot;" sqref="B2:B1048576">
       <formula1>"Sí,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Solo &quot;Sí&quot; o &quot;No&quot;" error="Se debe ingresar exactamente &quot;Sí&quot; o &quot;No&quot;" sqref="B1"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C133" r:id="rId1"/>
+    <hyperlink ref="C134" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -1356,21 +1356,6 @@
     <t>No se agregaron campos adicionales.</t>
   </si>
   <si>
-    <t>No sé usar Git.---RESUELTO---</t>
-  </si>
-  <si>
-    <t>No utilizo Node.js---RESUELTO---</t>
-  </si>
-  <si>
-    <t>Se utilizó Live Server de Visual Studio Code.---RESUELTO---Node.js+Express+MongoDb</t>
-  </si>
-  <si>
-    <t>Era checkbox---RESUELTO---</t>
-  </si>
-  <si>
-    <t>Ahora es radio---RESUELTO---</t>
-  </si>
-  <si>
     <t>***PENDIENTE***</t>
   </si>
   <si>
@@ -1383,9 +1368,6 @@
     <t>https://github.com/gabymosci/aa-Proyecto-integrador</t>
   </si>
   <si>
-    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.---RESUELTO---</t>
-  </si>
-  <si>
     <t>Tratá de no usar funciones con tantos parámetros. Es difícil memorizarlos y fácil confundirlos, además de ser incómodo. Por ej, la función validateInput podría recibir un objeto como parámetro, con propiedades que contengan los valores que necesitás.</t>
   </si>
   <si>
@@ -1426,12 +1408,6 @@
   </si>
   <si>
     <t>Mejorado en todos los casos que pude.</t>
-  </si>
-  <si>
-    <t>Hice el intento de incorporar la funcionalidad de Pago con la SDK de Marcado Pago. Quedé a mitad de camino, funciona en el front hasta antes del POST de los datos. Toda la documentación que encontré utiliza la declaración
-const mercadopago = require("mercadopago");
-Esto no funciona en nuestra arquitectura "type": "module" que supongo debería tener un formato
-import mercadopago from 'mercadopago';</t>
   </si>
   <si>
     <t>Pendiente: toda la programación del Back</t>
@@ -1450,6 +1426,33 @@
   <si>
     <t>Ahora se cierra el menú desplegable y se hicieron varias mejoras. 
 Algunas cosas no pude resolverlas, particularmente la table entre otras.</t>
+  </si>
+  <si>
+    <t>Hice el intento de incorporar la funcionalidad de Pago con la SDK de Marcado Pago. Quedé a mitad de camino, funciona en el front hasta antes del POST de los datos.
+Para probar pago cualquiera de estas tarjetas (son para pruebas)
+Mastercard:   5031 7557 3453 0604
+Visa:    4509 9535 6623 3704
+American Express: 3711 803032 57522
+Resto de los datos:
+Completar con cualquier cosa</t>
+  </si>
+  <si>
+    <t>No sé usar Git.---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>No utilizo Node.js---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Se utilizó Live Server de Visual Studio Code.---RESUELTO en Etapa 3---Node.js+Express+MongoDb</t>
+  </si>
+  <si>
+    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Era checkbox---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Ahora es radio---RESUELTO en Etapa 3---</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2092,8 @@
   <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2220,7 @@
         <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2507,7 +2510,7 @@
         <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2540,7 +2543,7 @@
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2709,7 +2712,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -2857,7 +2860,7 @@
         <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2868,7 +2871,7 @@
         <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B119" s="12"/>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3063,7 +3066,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3090,7 +3093,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3128,7 +3131,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3139,7 +3142,7 @@
         <v>130</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3148,29 +3151,29 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B139" s="15"/>
     </row>
     <row r="140" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>130</v>
@@ -3178,57 +3181,57 @@
     </row>
     <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C145" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -3239,24 +3242,24 @@
     </row>
     <row r="149" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <r>
       <t xml:space="preserve">Proyecto Integrador: </t>
@@ -1410,9 +1410,6 @@
     <t>Mejorado en todos los casos que pude.</t>
   </si>
   <si>
-    <t>Pendiente: toda la programación del Back</t>
-  </si>
-  <si>
     <t>https://aa-proyecto-integrador.glitch.me/</t>
   </si>
   <si>
@@ -1428,31 +1425,37 @@
 Algunas cosas no pude resolverlas, particularmente la table entre otras.</t>
   </si>
   <si>
-    <t>Hice el intento de incorporar la funcionalidad de Pago con la SDK de Marcado Pago. Quedé a mitad de camino, funciona en el front hasta antes del POST de los datos.
+    <t>No sé usar Git.---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>No utilizo Node.js---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Se utilizó Live Server de Visual Studio Code.---RESUELTO en Etapa 3---Node.js+Express+MongoDb</t>
+  </si>
+  <si>
+    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Era checkbox---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Ahora es radio---RESUELTO en Etapa 3---</t>
+  </si>
+  <si>
+    <t>Se postergó la fecha al 24/11/2022</t>
+  </si>
+  <si>
+    <t>Hice el intento de incorporar la funcionalidad de Pago con la SDK de Marcado Pago. Quedé a mitad de camino, funciona en el front una simulación hasta antes del POST de los datos.
 Para probar pago cualquiera de estas tarjetas (son para pruebas)
 Mastercard:   5031 7557 3453 0604
 Visa:    4509 9535 6623 3704
 American Express: 3711 803032 57522
-Resto de los datos:
-Completar con cualquier cosa</t>
-  </si>
-  <si>
-    <t>No sé usar Git.---RESUELTO en Etapa 3---</t>
-  </si>
-  <si>
-    <t>No utilizo Node.js---RESUELTO en Etapa 3---</t>
-  </si>
-  <si>
-    <t>Se utilizó Live Server de Visual Studio Code.---RESUELTO en Etapa 3---Node.js+Express+MongoDb</t>
-  </si>
-  <si>
-    <t>Mejorar Handlebars para adaptarlo usando {#each}. Ahora lo acumula el html.---RESUELTO en Etapa 3---</t>
-  </si>
-  <si>
-    <t>Era checkbox---RESUELTO en Etapa 3---</t>
-  </si>
-  <si>
-    <t>Ahora es radio---RESUELTO en Etapa 3---</t>
+Mail: test_user_97026521@testuser.com
+Resto de los datos: Completar con cualquier cosa</t>
+  </si>
+  <si>
+    <t>Pendiente: programación del Back</t>
   </si>
 </sst>
 </file>
@@ -2092,8 +2095,8 @@
   <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,7 +2223,7 @@
         <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2510,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2543,7 +2546,7 @@
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2712,7 +2715,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -2860,7 +2863,7 @@
         <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2871,7 +2874,7 @@
         <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -3007,9 +3010,11 @@
       <c r="A119" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3066,7 +3071,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
@@ -3142,7 +3147,7 @@
         <v>130</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3209,7 +3214,7 @@
         <v>130</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3247,7 @@
     </row>
     <row r="149" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>130</v>
@@ -3251,15 +3256,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C150" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
